--- a/biology/Botanique/Centaurea_stoebe/Centaurea_stoebe.xlsx
+++ b/biology/Botanique/Centaurea_stoebe/Centaurea_stoebe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurée du Rhin
 La Centaurée du Rhin (Centaurea stoebe) est une espèce de plante à fleurs de la famille des astéracées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace de 20 à 90 cm de hauteur avec des fleurs mauves.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémicryptophyte. Floraison juillet à octobre.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bord de chemins, friches, ballast des voies ferrées.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe centrale et sud-orientale. Parfois adventice.
 Elle aurait envahi deux millions d'hectares au Montana vers 2000 (Jared Diamond, Effondrement).
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>C. rhenana BOREAU
 C. maculosa subsp. LAM rhenana (BOREAU) GUGLER</t>
